--- a/output/fontilles.xlsx
+++ b/output/fontilles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -729,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ90"/>
+  <dimension ref="A1:AM90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,7 +747,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,10 +856,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -943,15 +961,24 @@
         <v>0.3887643395762856</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>68000</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1044,15 +1071,24 @@
         <v>0.3887643395762856</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>66000</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1145,15 +1181,24 @@
         <v>0.3887643395762856</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>195000</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1246,15 +1291,24 @@
         <v>0.3887643395762856</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>404000</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1347,15 +1401,24 @@
         <v>0.3887643395762856</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>139000</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1448,15 +1511,24 @@
         <v>0.3887643395762856</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>70000</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1549,15 +1621,24 @@
         <v>0.3887643395762856</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>29500</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1650,15 +1731,24 @@
         <v>0.3887643395762856</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>187136</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1751,15 +1841,24 @@
         <v>0.3887643395762856</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1858,15 +1957,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1965,15 +2073,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>38100</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2072,15 +2189,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2179,15 +2305,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>1115</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2286,15 +2421,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>11152</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2393,15 +2537,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>95494</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2500,15 +2653,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>59762</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2607,15 +2769,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>95000</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2714,15 +2885,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>12605</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2821,15 +3001,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>77965</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2928,15 +3117,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>107000</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3035,15 +3233,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>225000</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3142,15 +3349,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>15000</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3249,15 +3465,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>243413</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3356,15 +3581,24 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>33421</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3463,15 +3697,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3570,15 +3813,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>55905</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3677,15 +3929,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>4894</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3784,15 +4045,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>17925</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3891,15 +4161,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>47356</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3998,15 +4277,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>2579</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4105,15 +4393,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>143779</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4212,15 +4509,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>6892</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4319,15 +4625,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>547896</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4426,15 +4741,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>78000</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4533,15 +4857,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>153522</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4640,15 +4973,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4747,15 +5089,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>132418</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4854,15 +5205,24 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>42877</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4961,15 +5321,24 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>12500</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5068,15 +5437,24 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>6250</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5175,15 +5553,24 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>43395</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5282,15 +5669,24 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>11000</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5389,15 +5785,24 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5496,15 +5901,24 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>88999.5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5603,15 +6017,24 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -5710,15 +6133,24 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5817,15 +6249,24 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5924,15 +6365,24 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>12500</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6031,15 +6481,24 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>6250</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6138,15 +6597,24 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>43395</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6245,15 +6713,24 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>11000</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6352,15 +6829,24 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6459,15 +6945,24 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>88999.5</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6566,15 +7061,24 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>16000</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6673,15 +7177,24 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6780,15 +7293,24 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -6887,15 +7409,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>13760.5</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6994,15 +7525,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>38843</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7101,15 +7641,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>41086.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7208,15 +7757,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7315,15 +7873,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>9000</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7422,15 +7989,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>74391.5</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7529,15 +8105,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>16000</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7636,15 +8221,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>5861</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7743,15 +8337,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>16415.5</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7850,15 +8453,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>5000</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7957,15 +8569,24 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>3500</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8064,15 +8685,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>13760.5</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8171,15 +8801,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>38843</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8278,15 +8917,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>41086.5</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8385,15 +9033,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8492,15 +9149,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>9000</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8599,15 +9265,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>74391.5</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8706,15 +9381,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>16000</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8813,15 +9497,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>5861</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -8920,15 +9613,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>16415.5</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9027,15 +9729,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>5000</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9134,15 +9845,24 @@
         <v>0.7029252435980472</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>3500</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9241,15 +9961,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>2690</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9348,15 +10077,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>23447</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9455,15 +10193,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>50942</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9562,15 +10309,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9669,15 +10425,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>18000</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9776,15 +10541,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>114009</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -9883,15 +10657,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>27500</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -9990,15 +10773,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>15000</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10097,15 +10889,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>22000</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -10204,15 +11005,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10311,9 +11121,18 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1909</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>7000</v>
       </c>
     </row>

--- a/output/fontilles.xlsx
+++ b/output/fontilles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -738,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM90"/>
+  <dimension ref="A1:AO90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,7 +753,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,10 +871,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -925,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>658262</v>
+        <v>741700</v>
       </c>
       <c r="U2">
         <v>7</v>
@@ -955,30 +967,36 @@
         <v>2565774</v>
       </c>
       <c r="AG2">
-        <v>1693216</v>
+        <v>1776654</v>
       </c>
       <c r="AH2">
-        <v>0.3887643395762856</v>
+        <v>0.4174701433143426</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>1909</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>68000</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1035,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>658262</v>
+        <v>741700</v>
       </c>
       <c r="U3">
         <v>7</v>
@@ -1065,30 +1083,36 @@
         <v>2061461</v>
       </c>
       <c r="AG3">
-        <v>1693216</v>
+        <v>1776654</v>
       </c>
       <c r="AH3">
-        <v>0.3887643395762856</v>
+        <v>0.4174701433143426</v>
       </c>
       <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>1909</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>66000</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1145,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>658262</v>
+        <v>741700</v>
       </c>
       <c r="U4">
         <v>7</v>
@@ -1175,30 +1199,36 @@
         <v>4231773</v>
       </c>
       <c r="AG4">
-        <v>1693216</v>
+        <v>1776654</v>
       </c>
       <c r="AH4">
-        <v>0.3887643395762856</v>
+        <v>0.4174701433143426</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>1909</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>195000</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1255,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>658262</v>
+        <v>741700</v>
       </c>
       <c r="U5">
         <v>7</v>
@@ -1285,30 +1315,36 @@
         <v>4266738</v>
       </c>
       <c r="AG5">
-        <v>1693216</v>
+        <v>1776654</v>
       </c>
       <c r="AH5">
-        <v>0.3887643395762856</v>
+        <v>0.4174701433143426</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>1909</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>404000</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1365,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>658262</v>
+        <v>741700</v>
       </c>
       <c r="U6">
         <v>7</v>
@@ -1395,30 +1431,36 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>1693216</v>
+        <v>1776654</v>
       </c>
       <c r="AH6">
-        <v>0.3887643395762856</v>
+        <v>0.4174701433143426</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>1909</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>139000</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1475,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>658262</v>
+        <v>741700</v>
       </c>
       <c r="U7">
         <v>7</v>
@@ -1505,30 +1547,36 @@
         <v>3433758</v>
       </c>
       <c r="AG7">
-        <v>1693216</v>
+        <v>1776654</v>
       </c>
       <c r="AH7">
-        <v>0.3887643395762856</v>
+        <v>0.4174701433143426</v>
       </c>
       <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>1909</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>70000</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1585,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>658262</v>
+        <v>741700</v>
       </c>
       <c r="U8">
         <v>7</v>
@@ -1615,30 +1663,36 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>1693216</v>
+        <v>1776654</v>
       </c>
       <c r="AH8">
-        <v>0.3887643395762856</v>
+        <v>0.4174701433143426</v>
       </c>
       <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>1909</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>29500</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1695,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>658262</v>
+        <v>741700</v>
       </c>
       <c r="U9">
         <v>7</v>
@@ -1725,30 +1779,36 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>1693216</v>
+        <v>1776654</v>
       </c>
       <c r="AH9">
-        <v>0.3887643395762856</v>
+        <v>0.4174701433143426</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>1909</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>187136</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1805,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>658262</v>
+        <v>741700</v>
       </c>
       <c r="U10">
         <v>7</v>
@@ -1835,30 +1895,36 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>1693216</v>
+        <v>1776654</v>
       </c>
       <c r="AH10">
-        <v>0.3887643395762856</v>
+        <v>0.4174701433143426</v>
       </c>
       <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>1909</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1957,24 +2023,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI11">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ11">
         <v>1909</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2073,24 +2145,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI12">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ12">
         <v>1909</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>38100</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2189,24 +2267,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI13">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ13">
         <v>1909</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2305,24 +2389,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI14">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ14">
         <v>1909</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>1115</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2421,24 +2511,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI15">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ15">
         <v>1909</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>11152</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2537,24 +2633,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI16">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ16">
         <v>1909</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>95494</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2653,24 +2755,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI17">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ17">
         <v>1909</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>59762</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2769,24 +2877,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI18">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ18">
         <v>1909</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>95000</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2885,24 +2999,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI19">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ19">
         <v>1909</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>12605</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3001,24 +3121,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI20">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ20">
         <v>1909</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>77965</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3117,24 +3243,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI21">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ21">
         <v>1909</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>107000</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3233,24 +3365,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI22">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ22">
         <v>1909</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>225000</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3349,24 +3487,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI23">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ23">
         <v>1909</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>15000</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3465,24 +3609,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI24">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ24">
         <v>1909</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>243413</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3581,24 +3731,30 @@
         <v>0.4457021824898333</v>
       </c>
       <c r="AI25">
+        <v>0.3181343098058068</v>
+      </c>
+      <c r="AJ25">
         <v>1909</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>33421</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3697,24 +3853,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI26">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ26">
         <v>1909</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3813,24 +3975,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI27">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ27">
         <v>1909</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>55905</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3929,24 +4097,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI28">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ28">
         <v>1909</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>4894</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4045,24 +4219,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI29">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ29">
         <v>1909</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>17925</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4161,24 +4341,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI30">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ30">
         <v>1909</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>47356</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4277,24 +4463,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI31">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ31">
         <v>1909</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>2579</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4393,24 +4585,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI32">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ32">
         <v>1909</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>143779</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4509,24 +4707,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI33">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ33">
         <v>1909</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>6892</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4625,24 +4829,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI34">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ34">
         <v>1909</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>547896</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4741,24 +4951,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI35">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ35">
         <v>1909</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>78000</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4857,24 +5073,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI36">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ36">
         <v>1909</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>153522</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4973,24 +5195,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI37">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ37">
         <v>1909</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>10000</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5089,24 +5317,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI38">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ38">
         <v>1909</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>132418</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5205,24 +5439,30 @@
         <v>0.3937752758923199</v>
       </c>
       <c r="AI39">
+        <v>0.05655243912534509</v>
+      </c>
+      <c r="AJ39">
         <v>1909</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>42877</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5321,24 +5561,30 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1909</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>12500</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5437,24 +5683,30 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1909</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>6250</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5553,24 +5805,30 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1909</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>43395</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5669,24 +5927,30 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1909</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>11000</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5785,24 +6049,30 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1909</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5901,24 +6171,30 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1909</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>88999.5</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6017,24 +6293,30 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1909</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>16000</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6133,24 +6415,30 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1909</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>10000</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6249,24 +6537,30 @@
         <v>0.777975127991094</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1909</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6365,24 +6659,30 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1909</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>12500</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6481,24 +6781,30 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1909</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>6250</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6597,24 +6903,30 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
         <v>1909</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>43395</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6713,24 +7025,30 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1909</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>11000</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6829,24 +7147,30 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1909</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6945,24 +7269,30 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>1909</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>88999.5</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7061,24 +7391,30 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <v>1909</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>16000</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7177,24 +7513,30 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>1909</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7293,24 +7635,30 @@
         <v>0.8226070746983648</v>
       </c>
       <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>1909</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7409,24 +7757,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>1909</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>13760.5</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7525,24 +7879,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
         <v>1909</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>38843</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7641,24 +8001,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
         <v>1909</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>41086.5</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7757,24 +8123,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
         <v>1909</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7873,24 +8245,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
         <v>1909</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>9000</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7989,24 +8367,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
         <v>1909</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>74391.5</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8105,24 +8489,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
         <v>1909</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>16000</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8221,24 +8611,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
         <v>1909</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>5861</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8337,24 +8733,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
         <v>1909</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>16415.5</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8453,24 +8855,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
         <v>1909</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>5000</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8569,24 +8977,30 @@
         <v>0.8346051870621367</v>
       </c>
       <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
         <v>1909</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>3500</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8643,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="T69">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U69">
         <v>7</v>
@@ -8679,30 +9093,36 @@
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH69">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
         <v>1909</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
         <v>0</v>
       </c>
       <c r="AL69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>13760.5</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8759,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U70">
         <v>7</v>
@@ -8795,30 +9215,36 @@
         <v>346667</v>
       </c>
       <c r="AG70">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH70">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
         <v>1909</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>38843</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8875,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="T71">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U71">
         <v>7</v>
@@ -8911,30 +9337,36 @@
         <v>484307</v>
       </c>
       <c r="AG71">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH71">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
         <v>1909</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71">
         <v>1</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>41086.5</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8991,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U72">
         <v>7</v>
@@ -9027,30 +9459,36 @@
         <v>571280</v>
       </c>
       <c r="AG72">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH72">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
         <v>1909</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9107,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U73">
         <v>7</v>
@@ -9143,30 +9581,36 @@
         <v>540760</v>
       </c>
       <c r="AG73">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH73">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
         <v>1909</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>9000</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9223,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U74">
         <v>7</v>
@@ -9259,30 +9703,36 @@
         <v>0</v>
       </c>
       <c r="AG74">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH74">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
         <v>1909</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>74391.5</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9339,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U75">
         <v>7</v>
@@ -9375,30 +9825,36 @@
         <v>905600</v>
       </c>
       <c r="AG75">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH75">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
         <v>1909</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>16000</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9455,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U76">
         <v>7</v>
@@ -9491,30 +9947,36 @@
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH76">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
         <v>1909</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>5861</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9571,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U77">
         <v>7</v>
@@ -9607,30 +10069,36 @@
         <v>842494</v>
       </c>
       <c r="AG77">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH77">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>1909</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>16415.5</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9687,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U78">
         <v>7</v>
@@ -9723,30 +10191,36 @@
         <v>0</v>
       </c>
       <c r="AG78">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH78">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>1909</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>5000</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9803,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <v>583551.66</v>
+        <v>583551.6599999999</v>
       </c>
       <c r="U79">
         <v>7</v>
@@ -9839,30 +10313,36 @@
         <v>0</v>
       </c>
       <c r="AG79">
-        <v>830175.99</v>
+        <v>830175.9899999999</v>
       </c>
       <c r="AH79">
         <v>0.7029252435980472</v>
       </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>1909</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>3500</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9961,24 +10441,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>1909</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>2690</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10077,24 +10563,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>1909</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81">
         <v>1</v>
       </c>
       <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>23447</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10193,24 +10685,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>1909</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>50942</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10309,24 +10807,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
         <v>1909</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10425,24 +10929,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
         <v>1909</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>18000</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10541,24 +11051,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>1909</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>114009</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -10657,24 +11173,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
         <v>1909</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>27500</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10773,24 +11295,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
         <v>1909</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>15000</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10889,24 +11417,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>1909</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88">
         <v>1</v>
       </c>
       <c r="AM88">
+        <v>1</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>22000</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -11005,24 +11539,30 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
         <v>1909</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11121,18 +11661,24 @@
         <v>0.6573272291440783</v>
       </c>
       <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
         <v>1909</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
         <v>0</v>
       </c>
       <c r="AL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>7000</v>
       </c>
     </row>

--- a/output/fontilles.xlsx
+++ b/output/fontilles.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3680</v>
+        <v>4132.902312418774</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>480</v>
+        <v>567.9059336271471</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1230</v>
+        <v>1299.344949460393</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>570</v>
+        <v>612.3436990512633</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D17">
         <v>482444</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9270</v>
+        <v>10385.96443195552</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9660</v>
+        <v>11286.24301624575</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4340</v>
+        <v>4550.453595838572</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>540</v>
+        <v>592.4010974509293</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1380</v>
+        <v>1446.371630707023</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>620</v>
+        <v>644.763840173281</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM32">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>5050</v>
+        <v>4961.234688573883</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5346,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>610</v>
+        <v>612.032557723897</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>12360</v>
+        <v>11745.7759262897</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>700</v>
+        <v>642.5204633514562</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1540</v>
+        <v>1443.492614888721</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6566,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>12810</v>
+        <v>11993.48398487312</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>750</v>
+        <v>670.8378265228503</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1720</v>
+        <v>1505.810948829135</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7664,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1110</v>
+        <v>951.3148210424945</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8030,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>1880</v>
+        <v>1579.189101937001</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1220</v>
+        <v>1002.388731936373</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>1970</v>
+        <v>1667.171891046301</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>1370</v>
+        <v>1062.040157863007</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>2080</v>
+        <v>1752.531946133768</v>
       </c>
       <c r="D90">
         <v>0</v>

--- a/output/fontilles.xlsx
+++ b/output/fontilles.xlsx
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>334.0215725731523</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>357.5982958925156</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -6688,13 +6688,13 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>375.2191755030593</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>6250</v>
+        <v>10000</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>43395</v>
+        <v>143779</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>11000</v>
+        <v>6892</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1000</v>
+        <v>547896</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>88999.5</v>
+        <v>153522</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>16000</v>
+        <v>78000</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>10000</v>
+        <v>42877</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>397.3416704698143</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>108</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>1002.388731936373</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>13760.5</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>38843</v>
+        <v>1000</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>41086.5</v>
+        <v>88999.5</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>111</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>482.6390663355013</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>74391.5</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>114</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>579.0880693780265</v>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>115</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>731.9993357350996</v>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>5861</v>
+        <v>10000</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -9988,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>16415.5</v>
+        <v>11000</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10101,16 +10101,16 @@
         <v>117</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>411.0205730866137</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>5000</v>
+        <v>6250</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>407.2896431385426</v>
       </c>
       <c r="D89">
         <v>0</v>
